--- a/CashFlow/EVRG_cashflow.xlsx
+++ b/CashFlow/EVRG_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2036000000.0</v>
+        <v>-22300000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2013000000.0</v>
+        <v>-57100000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1535500000.0</v>
+        <v>-31000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>993400000.0</v>
+        <v>-31800000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>539000000.0</v>
+        <v>29900000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>67100000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>134300000.0</v>
+        <v>1644000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>40900000.0</v>
+        <v>1519000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>10382000.0</v>
+        <v>1165582000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-78042000.0</v>
+        <v>773958000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>13464000.0</v>
+        <v>414064000.0</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
